--- a/Lab_pins.xlsx
+++ b/Lab_pins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alves\Desktop\TCal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8F36AB2-D404-4C61-AF2E-E52A35CBEA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AC9A57-7FB5-411F-B13E-8AF78D20DFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F0ECF01E-4B55-4525-80FE-0F3FF559AC94}"/>
   </bookViews>
@@ -2483,7 +2483,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2491,6 +2491,7 @@
     <col min="1" max="1" width="18.44140625" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" customWidth="1"/>
     <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -2598,11 +2599,11 @@
         <v>26</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D14" si="0">B7-2.5</f>
+        <f t="shared" ref="D7:D13" si="0">B7-2.5</f>
         <v>23.5</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E14" si="1" xml:space="preserve"> C7-2.5</f>
+        <f t="shared" ref="E7:E13" si="1" xml:space="preserve"> C7-2.5</f>
         <v>23.5</v>
       </c>
     </row>
@@ -2741,7 +2742,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2878,18 +2880,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2911,14 +2913,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F9D34BA-D610-41D3-A838-1919F2E5DDB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91AC1215-92B7-478B-82BE-04C419E16757}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2932,4 +2926,12 @@
     <ds:schemaRef ds:uri="66db2af2-d673-45df-85e3-609b1c1a19d0"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F9D34BA-D610-41D3-A838-1919F2E5DDB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Lab_pins.xlsx
+++ b/Lab_pins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alves\Desktop\TCal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AC9A57-7FB5-411F-B13E-8AF78D20DFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789FAF1B-0550-4AF6-9DF2-A90C7982D637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F0ECF01E-4B55-4525-80FE-0F3FF559AC94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Lab TCAL</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>x-axis</t>
+  </si>
+  <si>
+    <t>theta/theta_b</t>
   </si>
 </sst>
 </file>
@@ -2480,10 +2483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5741FC0-6C83-4E18-89D4-08472C2041FE}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2491,10 +2494,12 @@
     <col min="1" max="1" width="18.44140625" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" customWidth="1"/>
     <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
     <col min="16" max="16" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2502,7 +2507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -2519,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2533,7 +2538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2547,7 +2552,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2569,7 +2574,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2587,8 +2592,14 @@
         <f xml:space="preserve"> C6-2.5</f>
         <v>39.5</v>
       </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2606,8 +2617,14 @@
         <f t="shared" ref="E7:E13" si="1" xml:space="preserve"> C7-2.5</f>
         <v>23.5</v>
       </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2625,8 +2642,16 @@
         <f t="shared" si="1"/>
         <v>35.5</v>
       </c>
+      <c r="H8">
+        <f>(D8-$D$7)/($D$6-$D$7)</f>
+        <v>0.73076923076923073</v>
+      </c>
+      <c r="I8">
+        <f>(E8-$E$7)/($E$6-$E$7)</f>
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2644,8 +2669,16 @@
         <f t="shared" si="1"/>
         <v>33.5</v>
       </c>
+      <c r="H9">
+        <f t="shared" ref="H9:I10" si="2">(D9-$D$7)/($D$6-$D$7)</f>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9:I10" si="3">(E9-$E$7)/($E$6-$E$7)</f>
+        <v>0.625</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2663,8 +2696,16 @@
         <f t="shared" si="1"/>
         <v>32.5</v>
       </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0.5625</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2683,7 +2724,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2702,7 +2743,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2721,7 +2762,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2880,18 +2921,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2913,6 +2954,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F9D34BA-D610-41D3-A838-1919F2E5DDB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91AC1215-92B7-478B-82BE-04C419E16757}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2926,12 +2975,4 @@
     <ds:schemaRef ds:uri="66db2af2-d673-45df-85e3-609b1c1a19d0"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F9D34BA-D610-41D3-A838-1919F2E5DDB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>